--- a/src/test/resources/dataprovider/business_detail/BusinessDetail.xlsx
+++ b/src/test/resources/dataprovider/business_detail/BusinessDetail.xlsx
@@ -1,88 +1,118 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="153222"/>
-  <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="13875" windowHeight="6300"/>
-  </bookViews>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+  <workbookPr/>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet state="visible" name="Sheet1" sheetId="1" r:id="rId4"/>
   </sheets>
-  <calcPr calcId="0"/>
-  <oleSize ref="A1"/>
+  <definedNames/>
+  <calcPr/>
   <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
-      <x15:workbookPr chartTrackingRefBase="1"/>
+    <ext uri="GoogleSheetsCustomDataVersion1">
+      <go:sheetsCustomData xmlns:go="http://customooxmlschemas.google.com/" r:id="rId5" roundtripDataSignature="AMtx7mjWZaq1xEWOFXyKWIrXA8F2Q812GA=="/>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="21">
+  <si>
+    <t>Business Type</t>
+  </si>
+  <si>
+    <t>ABN</t>
+  </si>
+  <si>
+    <t>Entity name</t>
+  </si>
+  <si>
+    <t>Business Name</t>
+  </si>
+  <si>
+    <t>Second Business Name</t>
+  </si>
   <si>
     <t>Company</t>
   </si>
   <si>
+    <t>YARRA VALLEY GRAMMAR</t>
+  </si>
+  <si>
+    <t>AUSTRALIAN GRAMMAR</t>
+  </si>
+  <si>
+    <t>EASTERN GRAMMAR</t>
+  </si>
+  <si>
     <t>Partnership</t>
   </si>
   <si>
+    <t>TIM PENNY ARCHITECTURE &amp; INTERIORS PTY. LTD.</t>
+  </si>
+  <si>
+    <t>Penny Contemporary</t>
+  </si>
+  <si>
+    <t>none</t>
+  </si>
+  <si>
     <t>SoleTrader</t>
   </si>
   <si>
-    <t>NotFound</t>
-  </si>
-  <si>
-    <t>YARRA VALLEY GRAMMAR</t>
-  </si>
-  <si>
-    <t>AUSTRALIAN GRAMMAR</t>
-  </si>
-  <si>
-    <t>Penny Contemporary</t>
-  </si>
-  <si>
     <t>RUSSELL, DAREN IAN</t>
   </si>
   <si>
     <t>TILLKOO</t>
   </si>
   <si>
-    <t>Business Type</t>
-  </si>
-  <si>
-    <t>ABN</t>
-  </si>
-  <si>
-    <t>Entity name</t>
-  </si>
-  <si>
-    <t>Business Name</t>
-  </si>
-  <si>
-    <t>TIM PENNY ARCHITECTURE &amp; INTERIORS PTY. LTD.</t>
+    <t>DAREN RUSSELL WINDOW CLEANING</t>
+  </si>
+  <si>
+    <t>Trust</t>
+  </si>
+  <si>
+    <t>The Trustee for THE CORPORATE UNIT TRUST</t>
+  </si>
+  <si>
+    <t>N/A</t>
+  </si>
+  <si>
+    <t>_x0008_none</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="2" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <fonts count="6">
     <font>
-      <sz val="11"/>
+      <sz val="11.0"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+    </font>
+    <font>
+      <sz val="11.0"/>
       <color theme="1"/>
       <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11.0"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
     </font>
     <font>
       <u/>
-      <sz val="11"/>
+      <sz val="11.0"/>
       <color theme="10"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11.0"/>
+      <color rgb="FF0563C1"/>
+    </font>
+    <font>
+      <sz val="11.0"/>
+      <color rgb="FF000000"/>
     </font>
   </fonts>
   <fills count="3">
@@ -90,87 +120,100 @@
       <patternFill patternType="none"/>
     </fill>
     <fill>
-      <patternFill patternType="gray125"/>
+      <patternFill patternType="lightGray"/>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFFF00"/>
-        <bgColor indexed="64"/>
+        <bgColor rgb="FFFFFF00"/>
       </patternFill>
     </fill>
   </fills>
   <borders count="2">
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
+    <border/>
     <border>
       <left style="thin">
-        <color indexed="64"/>
+        <color rgb="FF000000"/>
       </left>
       <right style="thin">
-        <color indexed="64"/>
+        <color rgb="FF000000"/>
       </right>
       <top style="thin">
-        <color indexed="64"/>
+        <color rgb="FF000000"/>
       </top>
       <bottom style="thin">
-        <color indexed="64"/>
+        <color rgb="FF000000"/>
       </bottom>
-      <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+  <cellStyleXfs count="1">
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="6">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+  <cellXfs count="15">
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
+    </xf>
+    <xf borderId="1" fillId="2" fontId="1" numFmtId="0" xfId="0" applyBorder="1" applyFill="1" applyFont="1"/>
+    <xf borderId="0" fillId="2" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0"/>
+    </xf>
+    <xf borderId="1" fillId="0" fontId="1" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
+    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0"/>
+    </xf>
+    <xf borderId="1" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf borderId="1" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment readingOrder="0" vertical="top"/>
+    </xf>
+    <xf borderId="1" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment shrinkToFit="0" vertical="top" wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0" vertical="top"/>
+    </xf>
+    <xf borderId="1" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment readingOrder="0"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyFont="1"/>
+    <xf borderId="0" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0"/>
+    </xf>
+    <xf borderId="1" fillId="0" fontId="2" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
+    <xf borderId="1" fillId="0" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment readingOrder="0"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="2">
-    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+  <cellStyles count="1">
+    <cellStyle xfId="0" name="Normal" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
 </styleSheet>
 </file>
 
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
+</file>
+
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheets">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Sheets">
       <a:dk1>
-        <a:sysClr val="windowText" lastClr="000000"/>
+        <a:srgbClr val="000000"/>
       </a:dk1>
       <a:lt1>
-        <a:sysClr val="window" lastClr="FFFFFF"/>
+        <a:srgbClr val="FFFFFF"/>
       </a:lt1>
       <a:dk2>
-        <a:srgbClr val="44546A"/>
+        <a:srgbClr val="000000"/>
       </a:dk2>
       <a:lt2>
-        <a:srgbClr val="E7E6E6"/>
+        <a:srgbClr val="FFFFFF"/>
       </a:lt2>
       <a:accent1>
         <a:srgbClr val="5B9BD5"/>
@@ -194,79 +237,19 @@
         <a:srgbClr val="0563C1"/>
       </a:hlink>
       <a:folHlink>
-        <a:srgbClr val="954F72"/>
+        <a:srgbClr val="0563C1"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Sheets">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
-        <a:ea typeface=""/>
-        <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
-        <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="宋体"/>
-        <a:font script="Hant" typeface="新細明體"/>
-        <a:font script="Arab" typeface="Times New Roman"/>
-        <a:font script="Hebr" typeface="Times New Roman"/>
-        <a:font script="Thai" typeface="Tahoma"/>
-        <a:font script="Ethi" typeface="Nyala"/>
-        <a:font script="Beng" typeface="Vrinda"/>
-        <a:font script="Gujr" typeface="Shruti"/>
-        <a:font script="Khmr" typeface="MoolBoran"/>
-        <a:font script="Knda" typeface="Tunga"/>
-        <a:font script="Guru" typeface="Raavi"/>
-        <a:font script="Cans" typeface="Euphemia"/>
-        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
-        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
-        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
-        <a:font script="Thaa" typeface="MV Boli"/>
-        <a:font script="Deva" typeface="Mangal"/>
-        <a:font script="Telu" typeface="Gautami"/>
-        <a:font script="Taml" typeface="Latha"/>
-        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
-        <a:font script="Orya" typeface="Kalinga"/>
-        <a:font script="Mlym" typeface="Kartika"/>
-        <a:font script="Laoo" typeface="DokChampa"/>
-        <a:font script="Sinh" typeface="Iskoola Pota"/>
-        <a:font script="Mong" typeface="Mongolian Baiti"/>
-        <a:font script="Viet" typeface="Times New Roman"/>
-        <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:latin typeface="Calibri"/>
+        <a:ea typeface="Calibri"/>
+        <a:cs typeface="Calibri"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
-        <a:ea typeface=""/>
-        <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
-        <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="宋体"/>
-        <a:font script="Hant" typeface="新細明體"/>
-        <a:font script="Arab" typeface="Arial"/>
-        <a:font script="Hebr" typeface="Arial"/>
-        <a:font script="Thai" typeface="Tahoma"/>
-        <a:font script="Ethi" typeface="Nyala"/>
-        <a:font script="Beng" typeface="Vrinda"/>
-        <a:font script="Gujr" typeface="Shruti"/>
-        <a:font script="Khmr" typeface="DaunPenh"/>
-        <a:font script="Knda" typeface="Tunga"/>
-        <a:font script="Guru" typeface="Raavi"/>
-        <a:font script="Cans" typeface="Euphemia"/>
-        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
-        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
-        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
-        <a:font script="Thaa" typeface="MV Boli"/>
-        <a:font script="Deva" typeface="Mangal"/>
-        <a:font script="Telu" typeface="Gautami"/>
-        <a:font script="Taml" typeface="Latha"/>
-        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
-        <a:font script="Orya" typeface="Kalinga"/>
-        <a:font script="Mlym" typeface="Kartika"/>
-        <a:font script="Laoo" typeface="DokChampa"/>
-        <a:font script="Sinh" typeface="Iskoola Pota"/>
-        <a:font script="Mong" typeface="Mongolian Baiti"/>
-        <a:font script="Viet" typeface="Arial"/>
-        <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:latin typeface="Calibri"/>
+        <a:ea typeface="Calibri"/>
+        <a:cs typeface="Calibri"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -407,103 +390,117 @@
       </a:bgFillStyleLst>
     </a:fmtScheme>
   </a:themeElements>
-  <a:objectDefaults/>
-  <a:extraClrSchemeLst/>
-  <a:extLst>
-    <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
-    </a:ext>
-  </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D5"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+  <sheetPr>
+    <pageSetUpPr/>
+  </sheetPr>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C8" sqref="C8"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.0"/>
   <cols>
-    <col min="1" max="1" width="13.5703125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="12" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="44.42578125" customWidth="1"/>
-    <col min="4" max="4" width="22.5703125" bestFit="1" customWidth="1"/>
+    <col customWidth="1" min="1" max="1" width="11.88"/>
+    <col customWidth="1" min="2" max="2" width="10.5"/>
+    <col customWidth="1" min="3" max="3" width="38.88"/>
+    <col customWidth="1" min="4" max="5" width="19.75"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A1" s="5" t="s">
+    <row r="1">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2" s="3">
+        <v>4.4004584552E10</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="D2" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="E2" s="4" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3" ht="19.5" customHeight="1">
+      <c r="A3" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="B1" s="5" t="s">
+      <c r="B3" s="6">
+        <v>3.7136594735E10</v>
+      </c>
+      <c r="C3" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="C1" s="5" t="s">
+      <c r="D3" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="D1" s="5" t="s">
+      <c r="E3" s="8" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A2" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B2" s="1">
-        <v>44004584552</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="D2" s="1" t="s">
-        <v>5</v>
+    <row r="4">
+      <c r="A4" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="B4" s="9">
+        <v>9.4330845794E10</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="D4" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="E4" s="11" t="s">
+        <v>16</v>
       </c>
     </row>
-    <row r="3" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="B3" s="3">
-        <v>37136594735</v>
-      </c>
-      <c r="C3" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="D3" s="3" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A4" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="B4" s="1">
-        <v>94330845794</v>
-      </c>
-      <c r="C4" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="D4" s="4" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A5" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B5" s="1">
-        <v>37010163336</v>
-      </c>
-      <c r="C5" s="1"/>
-      <c r="D5" s="1"/>
+    <row r="5">
+      <c r="A5" s="12" t="s">
+        <v>17</v>
+      </c>
+      <c r="B5" s="12">
+        <v>9.3606753757E10</v>
+      </c>
+      <c r="C5" s="12" t="s">
+        <v>18</v>
+      </c>
+      <c r="D5" s="13" t="s">
+        <v>19</v>
+      </c>
+      <c r="E5" s="14" t="s">
+        <v>20</v>
+      </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="D4" r:id="rId1" display="https://connectonline.asic.gov.au/RegistrySearch/bySearchId.jsp?searchIdType=BUSN&amp;searchId=158704744"/>
+    <hyperlink r:id="rId1" ref="D4"/>
   </hyperlinks>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="4294967295" verticalDpi="4294967295" r:id="rId2"/>
+  <printOptions/>
+  <pageMargins bottom="0.75" footer="0.0" header="0.0" left="0.7" right="0.7" top="0.75"/>
+  <pageSetup orientation="portrait"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
--- a/src/test/resources/dataprovider/business_detail/BusinessDetail.xlsx
+++ b/src/test/resources/dataprovider/business_detail/BusinessDetail.xlsx
@@ -1,12 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
+  <bookViews>
+    <workbookView xWindow="630" yWindow="600" windowWidth="27495" windowHeight="11955"/>
+  </bookViews>
   <sheets>
-    <sheet state="visible" name="Sheet1" sheetId="1" r:id="rId4"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <definedNames/>
-  <calcPr/>
+  <calcPr calcId="0"/>
   <extLst>
     <ext uri="GoogleSheetsCustomDataVersion1">
       <go:sheetsCustomData xmlns:go="http://customooxmlschemas.google.com/" r:id="rId5" roundtripDataSignature="AMtx7mjWZaq1xEWOFXyKWIrXA8F2Q812GA=="/>
@@ -16,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="20">
   <si>
     <t>Business Type</t>
   </si>
@@ -57,9 +60,6 @@
     <t>none</t>
   </si>
   <si>
-    <t>SoleTrader</t>
-  </si>
-  <si>
     <t>RUSSELL, DAREN IAN</t>
   </si>
   <si>
@@ -69,50 +69,67 @@
     <t>DAREN RUSSELL WINDOW CLEANING</t>
   </si>
   <si>
-    <t>Trust</t>
-  </si>
-  <si>
-    <t>The Trustee for THE CORPORATE UNIT TRUST</t>
-  </si>
-  <si>
-    <t>N/A</t>
-  </si>
-  <si>
     <t>_x0008_none</t>
+  </si>
+  <si>
+    <t>The Trustee for Miles Family Trust</t>
+  </si>
+  <si>
+    <t>Sole_Trader</t>
+  </si>
+  <si>
+    <t>CORPORATE_TRUSTEE</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <fonts count="6">
-    <font>
-      <sz val="11.0"/>
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="8" x14ac:knownFonts="1">
+    <font>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="Arial"/>
     </font>
     <font>
-      <sz val="11.0"/>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
     </font>
     <font>
-      <sz val="11.0"/>
+      <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
     </font>
     <font>
       <u/>
-      <sz val="11.0"/>
+      <sz val="11"/>
       <color theme="10"/>
-    </font>
-    <font>
-      <sz val="11.0"/>
+      <name val="Arial"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FF0563C1"/>
-    </font>
-    <font>
-      <sz val="11.0"/>
+      <name val="Arial"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FF000000"/>
+      <name val="Arial"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="163"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="163"/>
     </font>
   </fonts>
   <fills count="3">
@@ -120,7 +137,7 @@
       <patternFill patternType="none"/>
     </fill>
     <fill>
-      <patternFill patternType="lightGray"/>
+      <patternFill patternType="gray125"/>
     </fill>
     <fill>
       <patternFill patternType="solid">
@@ -130,7 +147,13 @@
     </fill>
   </fills>
   <borders count="2">
-    <border/>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
     <border>
       <left style="thin">
         <color rgb="FF000000"/>
@@ -144,63 +167,55 @@
       <bottom style="thin">
         <color rgb="FF000000"/>
       </bottom>
+      <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
-    </xf>
-    <xf borderId="1" fillId="2" fontId="1" numFmtId="0" xfId="0" applyBorder="1" applyFill="1" applyFont="1"/>
-    <xf borderId="0" fillId="2" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0"/>
-    </xf>
-    <xf borderId="1" fillId="0" fontId="1" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0"/>
-    </xf>
-    <xf borderId="1" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+  <cellXfs count="18">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf borderId="1" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment readingOrder="0" vertical="top"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
     </xf>
-    <xf borderId="1" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment shrinkToFit="0" vertical="top" wrapText="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0" vertical="top"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top"/>
     </xf>
-    <xf borderId="1" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment readingOrder="0"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyFont="1"/>
-    <xf borderId="0" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0"/>
-    </xf>
-    <xf borderId="1" fillId="0" fontId="2" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="1" fillId="0" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment readingOrder="0"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0"/>
-    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle xfId="0" name="Normal" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
-<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
-</file>
-
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheets">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Sheets">
   <a:themeElements>
     <a:clrScheme name="Sheets">
       <a:dk1>
@@ -390,26 +405,28 @@
       </a:bgFillStyleLst>
     </a:fmtScheme>
   </a:themeElements>
+  <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-  <sheetPr>
-    <pageSetUpPr/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:E5"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C4" sqref="C4"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.0"/>
+  <sheetFormatPr defaultColWidth="12.625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
-    <col customWidth="1" min="1" max="1" width="11.88"/>
-    <col customWidth="1" min="2" max="2" width="10.5"/>
-    <col customWidth="1" min="3" max="3" width="38.88"/>
-    <col customWidth="1" min="4" max="5" width="19.75"/>
+    <col min="1" max="1" width="11.875" customWidth="1"/>
+    <col min="2" max="2" width="13.375" customWidth="1"/>
+    <col min="3" max="3" width="38.875" customWidth="1"/>
+    <col min="4" max="5" width="19.75" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -426,12 +443,12 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
         <v>5</v>
       </c>
       <c r="B2" s="3">
-        <v>4.4004584552E10</v>
+        <v>44004584552</v>
       </c>
       <c r="C2" s="3" t="s">
         <v>6</v>
@@ -443,12 +460,12 @@
         <v>8</v>
       </c>
     </row>
-    <row r="3" ht="19.5" customHeight="1">
+    <row r="3" spans="1:5" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="5" t="s">
         <v>9</v>
       </c>
       <c r="B3" s="6">
-        <v>3.7136594735E10</v>
+        <v>37136594735</v>
       </c>
       <c r="C3" s="7" t="s">
         <v>10</v>
@@ -460,47 +477,43 @@
         <v>12</v>
       </c>
     </row>
-    <row r="4">
-      <c r="A4" s="3" t="s">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A4" s="17" t="s">
+        <v>18</v>
+      </c>
+      <c r="B4" s="9">
+        <v>94330845794</v>
+      </c>
+      <c r="C4" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="B4" s="9">
-        <v>9.4330845794E10</v>
-      </c>
-      <c r="C4" s="3" t="s">
+      <c r="D4" s="10" t="s">
         <v>14</v>
       </c>
-      <c r="D4" s="10" t="s">
+      <c r="E4" s="11" t="s">
         <v>15</v>
       </c>
-      <c r="E4" s="11" t="s">
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A5" s="12" t="s">
+        <v>19</v>
+      </c>
+      <c r="B5" s="15">
+        <v>17968326471</v>
+      </c>
+      <c r="C5" s="16" t="s">
+        <v>17</v>
+      </c>
+      <c r="D5" s="13"/>
+      <c r="E5" s="14" t="s">
         <v>16</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="12" t="s">
-        <v>17</v>
-      </c>
-      <c r="B5" s="12">
-        <v>9.3606753757E10</v>
-      </c>
-      <c r="C5" s="12" t="s">
-        <v>18</v>
-      </c>
-      <c r="D5" s="13" t="s">
-        <v>19</v>
-      </c>
-      <c r="E5" s="14" t="s">
-        <v>20</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink r:id="rId1" ref="D4"/>
+    <hyperlink ref="D4" r:id="rId1"/>
   </hyperlinks>
-  <printOptions/>
-  <pageMargins bottom="0.75" footer="0.0" header="0.0" left="0.7" right="0.7" top="0.75"/>
-  <pageSetup orientation="portrait"/>
-  <drawing r:id="rId2"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
+  <pageSetup orientation="portrait" r:id="rId2"/>
 </worksheet>
 </file>
--- a/src/test/resources/dataprovider/business_detail/BusinessDetail.xlsx
+++ b/src/test/resources/dataprovider/business_detail/BusinessDetail.xlsx
@@ -1,16 +1,25 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="22725"/>
   <workbookPr/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{FD2456DE-EDB3-4D4D-A07A-3E223DAC772C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="630" yWindow="600" windowWidth="27495" windowHeight="11955"/>
+    <workbookView xWindow="630" yWindow="600" windowWidth="27495" windowHeight="11955" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="191028"/>
   <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+      </xcalcf:calcFeatures>
+    </ext>
     <ext uri="GoogleSheetsCustomDataVersion1">
       <go:sheetsCustomData xmlns:go="http://customooxmlschemas.google.com/" r:id="rId5" roundtripDataSignature="AMtx7mjWZaq1xEWOFXyKWIrXA8F2Q812GA=="/>
     </ext>
@@ -19,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="19">
   <si>
     <t>Business Type</t>
   </si>
@@ -57,7 +66,10 @@
     <t>Penny Contemporary</t>
   </si>
   <si>
-    <t>none</t>
+    <t>N/A</t>
+  </si>
+  <si>
+    <t>Sole_Trader</t>
   </si>
   <si>
     <t>RUSSELL, DAREN IAN</t>
@@ -69,23 +81,17 @@
     <t>DAREN RUSSELL WINDOW CLEANING</t>
   </si>
   <si>
-    <t>_x0008_none</t>
+    <t>CORPORATE_TRUSTEE</t>
   </si>
   <si>
     <t>The Trustee for Miles Family Trust</t>
-  </si>
-  <si>
-    <t>Sole_Trader</t>
-  </si>
-  <si>
-    <t>CORPORATE_TRUSTEE</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="8" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="8">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -202,13 +208,16 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Bình thường" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -411,14 +420,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:E5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
+      <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="12.625" defaultRowHeight="15" customHeight="1"/>
   <cols>
     <col min="1" max="1" width="11.875" customWidth="1"/>
     <col min="2" max="2" width="13.375" customWidth="1"/>
@@ -426,7 +435,7 @@
     <col min="4" max="5" width="19.75" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -443,7 +452,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:5">
       <c r="A2" s="3" t="s">
         <v>5</v>
       </c>
@@ -460,7 +469,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="3" spans="1:5" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:5" ht="19.5" customHeight="1">
       <c r="A3" s="5" t="s">
         <v>9</v>
       </c>
@@ -477,41 +486,43 @@
         <v>12</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:5">
       <c r="A4" s="17" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="B4" s="9">
         <v>94330845794</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D4" s="10" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="E4" s="11" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:5">
       <c r="A5" s="12" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="B5" s="15">
         <v>17968326471</v>
       </c>
       <c r="C5" s="16" t="s">
-        <v>17</v>
-      </c>
-      <c r="D5" s="13"/>
+        <v>18</v>
+      </c>
+      <c r="D5" s="13" t="s">
+        <v>12</v>
+      </c>
       <c r="E5" s="14" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="D4" r:id="rId1"/>
+    <hyperlink ref="D4" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
   <pageSetup orientation="portrait" r:id="rId2"/>

--- a/src/test/resources/dataprovider/business_detail/BusinessDetail.xlsx
+++ b/src/test/resources/dataprovider/business_detail/BusinessDetail.xlsx
@@ -1,9 +1,9 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="22725"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="22801"/>
   <workbookPr/>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{FD2456DE-EDB3-4D4D-A07A-3E223DAC772C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{2E8EDC9B-25C8-45F6-A4E5-05FD8DC85C5B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="630" yWindow="600" windowWidth="27495" windowHeight="11955" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="18">
   <si>
     <t>Business Type</t>
   </si>
@@ -60,10 +60,7 @@
     <t>Partnership</t>
   </si>
   <si>
-    <t>TIM PENNY ARCHITECTURE &amp; INTERIORS PTY. LTD.</t>
-  </si>
-  <si>
-    <t>Penny Contemporary</t>
+    <t>I.C HILL &amp; L.A HILL &amp; S HILL &amp; R.L JAKINS</t>
   </si>
   <si>
     <t>N/A</t>
@@ -424,7 +421,7 @@
   <dimension ref="A1:E5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
+      <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.625" defaultRowHeight="15" customHeight="1"/>
@@ -474,7 +471,7 @@
         <v>9</v>
       </c>
       <c r="B3" s="6">
-        <v>37136594735</v>
+        <v>95488716489</v>
       </c>
       <c r="C3" s="7" t="s">
         <v>10</v>
@@ -483,41 +480,41 @@
         <v>11</v>
       </c>
       <c r="E3" s="8" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="4" spans="1:5">
       <c r="A4" s="17" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B4" s="9">
         <v>94330845794</v>
       </c>
       <c r="C4" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="D4" s="10" t="s">
         <v>14</v>
       </c>
-      <c r="D4" s="10" t="s">
+      <c r="E4" s="11" t="s">
         <v>15</v>
-      </c>
-      <c r="E4" s="11" t="s">
-        <v>16</v>
       </c>
     </row>
     <row r="5" spans="1:5">
       <c r="A5" s="12" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B5" s="15">
         <v>17968326471</v>
       </c>
       <c r="C5" s="16" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D5" s="13" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E5" s="14" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
   </sheetData>

--- a/src/test/resources/dataprovider/business_detail/BusinessDetail.xlsx
+++ b/src/test/resources/dataprovider/business_detail/BusinessDetail.xlsx
@@ -1,27 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="22801"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
   <workbookPr/>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{2E8EDC9B-25C8-45F6-A4E5-05FD8DC85C5B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
-  <bookViews>
-    <workbookView xWindow="630" yWindow="600" windowWidth="27495" windowHeight="11955" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
-  </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet state="visible" name="Sheet1" sheetId="1" r:id="rId4"/>
   </sheets>
-  <calcPr calcId="191028"/>
+  <definedNames/>
+  <calcPr/>
   <extLst>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-      </xcalcf:calcFeatures>
-    </ext>
     <ext uri="GoogleSheetsCustomDataVersion1">
-      <go:sheetsCustomData xmlns:go="http://customooxmlschemas.google.com/" r:id="rId5" roundtripDataSignature="AMtx7mjWZaq1xEWOFXyKWIrXA8F2Q812GA=="/>
+      <go:sheetsCustomData xmlns:go="http://customooxmlschemas.google.com/" r:id="rId5" roundtripDataSignature="AMtx7mjvrO74kLb6BsHDg2nmQBCjWVbxow=="/>
     </ext>
   </extLst>
 </workbook>
@@ -60,7 +48,7 @@
     <t>Partnership</t>
   </si>
   <si>
-    <t>I.C HILL &amp; L.A HILL &amp; S HILL &amp; R.L JAKINS</t>
+    <t>I.C HILL &amp; S HILL &amp; THE TRUSTEE FOR J H FAMILY TRUST</t>
   </si>
   <si>
     <t>N/A</t>
@@ -87,52 +75,38 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="8">
-    <font>
-      <sz val="11"/>
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <fonts count="6">
+    <font>
+      <sz val="11.0"/>
       <color theme="1"/>
       <name val="Arial"/>
     </font>
     <font>
-      <sz val="11"/>
+      <sz val="11.0"/>
       <color theme="1"/>
       <name val="Calibri"/>
     </font>
     <font>
-      <sz val="11"/>
+      <sz val="11.0"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
     </font>
     <font>
       <u/>
-      <sz val="11"/>
+      <sz val="11.0"/>
       <color theme="10"/>
       <name val="Arial"/>
     </font>
     <font>
-      <sz val="11"/>
+      <sz val="11.0"/>
       <color rgb="FF0563C1"/>
       <name val="Arial"/>
     </font>
     <font>
-      <sz val="11"/>
+      <sz val="11.0"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF000000"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <charset val="163"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <charset val="163"/>
     </font>
   </fonts>
   <fills count="3">
@@ -140,7 +114,7 @@
       <patternFill patternType="none"/>
     </fill>
     <fill>
-      <patternFill patternType="gray125"/>
+      <patternFill patternType="lightGray"/>
     </fill>
     <fill>
       <patternFill patternType="solid">
@@ -149,14 +123,8 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="2">
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
+  <borders count="3">
+    <border/>
     <border>
       <left style="thin">
         <color rgb="FF000000"/>
@@ -170,58 +138,56 @@
       <bottom style="thin">
         <color rgb="FF000000"/>
       </bottom>
-      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="18">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+  <cellXfs count="14">
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
+    </xf>
+    <xf borderId="1" fillId="2" fontId="1" numFmtId="0" xfId="0" applyBorder="1" applyFill="1" applyFont="1"/>
+    <xf borderId="2" fillId="2" fontId="2" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
+    <xf borderId="1" fillId="0" fontId="1" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
+    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyFont="1"/>
+    <xf borderId="1" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf borderId="1" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
+    <xf borderId="1" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment readingOrder="0" shrinkToFit="0" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf borderId="1" fillId="0" fontId="2" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
+    <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyFont="1"/>
+    <xf borderId="0" fillId="0" fontId="4" numFmtId="0" xfId="0" applyFont="1"/>
+    <xf borderId="1" fillId="0" fontId="5" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
+    <xf borderId="0" fillId="0" fontId="5" numFmtId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Bình thường" xfId="0" builtinId="0"/>
+    <cellStyle xfId="0" name="Normal" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
 </styleSheet>
 </file>
 
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
+</file>
+
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Sheets">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheets">
   <a:themeElements>
     <a:clrScheme name="Sheets">
       <a:dk1>
@@ -411,28 +377,26 @@
       </a:bgFillStyleLst>
     </a:fmtScheme>
   </a:themeElements>
-  <a:objectDefaults/>
-  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E5"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+  <sheetPr>
+    <pageSetUpPr/>
+  </sheetPr>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.625" defaultRowHeight="15" customHeight="1"/>
+  <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.0"/>
   <cols>
-    <col min="1" max="1" width="11.875" customWidth="1"/>
-    <col min="2" max="2" width="13.375" customWidth="1"/>
-    <col min="3" max="3" width="38.875" customWidth="1"/>
-    <col min="4" max="5" width="19.75" customWidth="1"/>
+    <col customWidth="1" min="1" max="1" width="10.38"/>
+    <col customWidth="1" min="2" max="2" width="11.75"/>
+    <col customWidth="1" min="3" max="3" width="34.0"/>
+    <col customWidth="1" min="4" max="5" width="17.25"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5">
+    <row r="1">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -449,12 +413,12 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:5">
+    <row r="2">
       <c r="A2" s="3" t="s">
         <v>5</v>
       </c>
       <c r="B2" s="3">
-        <v>44004584552</v>
+        <v>4.4004584552E10</v>
       </c>
       <c r="C2" s="3" t="s">
         <v>6</v>
@@ -466,12 +430,12 @@
         <v>8</v>
       </c>
     </row>
-    <row r="3" spans="1:5" ht="19.5" customHeight="1">
+    <row r="3" ht="19.5" customHeight="1">
       <c r="A3" s="5" t="s">
         <v>9</v>
       </c>
       <c r="B3" s="6">
-        <v>95488716489</v>
+        <v>9.5488716489E10</v>
       </c>
       <c r="C3" s="7" t="s">
         <v>10</v>
@@ -483,12 +447,12 @@
         <v>11</v>
       </c>
     </row>
-    <row r="4" spans="1:5">
-      <c r="A4" s="17" t="s">
+    <row r="4">
+      <c r="A4" s="3" t="s">
         <v>12</v>
       </c>
       <c r="B4" s="9">
-        <v>94330845794</v>
+        <v>9.4330845794E10</v>
       </c>
       <c r="C4" s="3" t="s">
         <v>13</v>
@@ -500,28 +464,30 @@
         <v>15</v>
       </c>
     </row>
-    <row r="5" spans="1:5">
-      <c r="A5" s="12" t="s">
+    <row r="5">
+      <c r="A5" s="9" t="s">
         <v>16</v>
       </c>
-      <c r="B5" s="15">
-        <v>17968326471</v>
-      </c>
-      <c r="C5" s="16" t="s">
+      <c r="B5" s="9">
+        <v>1.7968326471E10</v>
+      </c>
+      <c r="C5" s="9" t="s">
         <v>17</v>
       </c>
-      <c r="D5" s="13" t="s">
+      <c r="D5" s="12" t="s">
         <v>11</v>
       </c>
-      <c r="E5" s="14" t="s">
+      <c r="E5" s="13" t="s">
         <v>11</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="D4" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
+    <hyperlink r:id="rId1" ref="D4"/>
   </hyperlinks>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
-  <pageSetup orientation="portrait" r:id="rId2"/>
+  <printOptions/>
+  <pageMargins bottom="0.75" footer="0.0" header="0.0" left="0.7" right="0.7" top="0.75"/>
+  <pageSetup orientation="portrait"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>